--- a/test/filter_edge_color/test_hough_color_peaks.xlsx
+++ b/test/filter_edge_color/test_hough_color_peaks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\test\filter_edge_color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D106D5B-5403-4BB7-9FF5-60A97E9954E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB77D70-FAF4-4C65-8618-345DCB930D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3149D163-2F90-4328-88DA-2CE741C7ED86}"/>
+    <workbookView xWindow="-28020" yWindow="795" windowWidth="15960" windowHeight="12420" xr2:uid="{3149D163-2F90-4328-88DA-2CE741C7ED86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,6 +66,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -79,10 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,12 +437,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EFA1F1-82E2-45B6-B47E-39EBE2A05BF0}">
   <dimension ref="A1:OM61"/>
   <sheetViews>
-    <sheetView topLeftCell="FF9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="GH47" sqref="GH1:GH1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1350" ySplit="585" topLeftCell="FM12" activePane="bottomRight"/>
+      <selection activeCell="FF11" sqref="FF11"/>
+      <selection pane="topRight" activeCell="FO1" sqref="FO1:FO1048576"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="FO31" sqref="FO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="171" max="171" width="8.88671875" style="3"/>
     <col min="190" max="190" width="8.88671875" style="2"/>
     <col min="192" max="192" width="8.88671875" style="1"/>
   </cols>
@@ -951,7 +963,7 @@
       <c r="FN1">
         <v>-32</v>
       </c>
-      <c r="FO1">
+      <c r="FO1" s="3">
         <v>-31</v>
       </c>
       <c r="FP1">
@@ -2162,7 +2174,7 @@
       <c r="FN2">
         <v>5985</v>
       </c>
-      <c r="FO2">
+      <c r="FO2" s="3">
         <v>7144</v>
       </c>
       <c r="FP2">
@@ -3373,7 +3385,7 @@
       <c r="FN3">
         <v>5724</v>
       </c>
-      <c r="FO3">
+      <c r="FO3" s="3">
         <v>5774</v>
       </c>
       <c r="FP3">
@@ -4584,7 +4596,7 @@
       <c r="FN4">
         <v>8154</v>
       </c>
-      <c r="FO4">
+      <c r="FO4" s="3">
         <v>7985</v>
       </c>
       <c r="FP4">
@@ -5795,7 +5807,7 @@
       <c r="FN5">
         <v>6537</v>
       </c>
-      <c r="FO5">
+      <c r="FO5" s="3">
         <v>7710</v>
       </c>
       <c r="FP5">
@@ -7006,7 +7018,7 @@
       <c r="FN6">
         <v>6821</v>
       </c>
-      <c r="FO6">
+      <c r="FO6" s="3">
         <v>6884</v>
       </c>
       <c r="FP6">
@@ -8217,7 +8229,7 @@
       <c r="FN7">
         <v>7419</v>
       </c>
-      <c r="FO7">
+      <c r="FO7" s="3">
         <v>7022</v>
       </c>
       <c r="FP7">
@@ -9428,7 +9440,7 @@
       <c r="FN8">
         <v>6140</v>
       </c>
-      <c r="FO8">
+      <c r="FO8" s="3">
         <v>7101</v>
       </c>
       <c r="FP8">
@@ -10639,7 +10651,7 @@
       <c r="FN9">
         <v>7106</v>
       </c>
-      <c r="FO9">
+      <c r="FO9" s="3">
         <v>7210</v>
       </c>
       <c r="FP9">
@@ -11850,7 +11862,7 @@
       <c r="FN10">
         <v>6530</v>
       </c>
-      <c r="FO10">
+      <c r="FO10" s="3">
         <v>6984</v>
       </c>
       <c r="FP10">
@@ -13061,7 +13073,7 @@
       <c r="FN11">
         <v>7500</v>
       </c>
-      <c r="FO11">
+      <c r="FO11" s="3">
         <v>6985</v>
       </c>
       <c r="FP11">
@@ -14272,7 +14284,7 @@
       <c r="FN12">
         <v>6194</v>
       </c>
-      <c r="FO12">
+      <c r="FO12" s="3">
         <v>5323</v>
       </c>
       <c r="FP12">
@@ -15483,7 +15495,7 @@
       <c r="FN13">
         <v>4743</v>
       </c>
-      <c r="FO13">
+      <c r="FO13" s="3">
         <v>5417</v>
       </c>
       <c r="FP13">
@@ -16694,7 +16706,7 @@
       <c r="FN14">
         <v>6130</v>
       </c>
-      <c r="FO14">
+      <c r="FO14" s="3">
         <v>5963</v>
       </c>
       <c r="FP14">
@@ -17905,7 +17917,7 @@
       <c r="FN15">
         <v>6432</v>
       </c>
-      <c r="FO15">
+      <c r="FO15" s="3">
         <v>6832</v>
       </c>
       <c r="FP15">
@@ -19116,7 +19128,7 @@
       <c r="FN16">
         <v>6841</v>
       </c>
-      <c r="FO16">
+      <c r="FO16" s="3">
         <v>6757</v>
       </c>
       <c r="FP16">
@@ -20327,7 +20339,7 @@
       <c r="FN17">
         <v>10883</v>
       </c>
-      <c r="FO17">
+      <c r="FO17" s="3">
         <v>5221</v>
       </c>
       <c r="FP17">
@@ -21538,7 +21550,7 @@
       <c r="FN18">
         <v>8677</v>
       </c>
-      <c r="FO18">
+      <c r="FO18" s="3">
         <v>8102</v>
       </c>
       <c r="FP18">
@@ -22749,7 +22761,7 @@
       <c r="FN19">
         <v>8919</v>
       </c>
-      <c r="FO19">
+      <c r="FO19" s="3">
         <v>9091</v>
       </c>
       <c r="FP19">
@@ -23960,7 +23972,7 @@
       <c r="FN20">
         <v>8508</v>
       </c>
-      <c r="FO20">
+      <c r="FO20" s="3">
         <v>8848</v>
       </c>
       <c r="FP20">
@@ -25171,7 +25183,7 @@
       <c r="FN21">
         <v>6879</v>
       </c>
-      <c r="FO21">
+      <c r="FO21" s="3">
         <v>7065</v>
       </c>
       <c r="FP21">
@@ -26382,7 +26394,7 @@
       <c r="FN22">
         <v>6549</v>
       </c>
-      <c r="FO22">
+      <c r="FO22" s="3">
         <v>6647</v>
       </c>
       <c r="FP22">
@@ -27593,7 +27605,7 @@
       <c r="FN23">
         <v>6908</v>
       </c>
-      <c r="FO23">
+      <c r="FO23" s="3">
         <v>7358</v>
       </c>
       <c r="FP23">
@@ -28804,7 +28816,7 @@
       <c r="FN24">
         <v>7661</v>
       </c>
-      <c r="FO24">
+      <c r="FO24" s="3">
         <v>7874</v>
       </c>
       <c r="FP24">
@@ -30015,7 +30027,7 @@
       <c r="FN25">
         <v>8965</v>
       </c>
-      <c r="FO25">
+      <c r="FO25" s="3">
         <v>9163</v>
       </c>
       <c r="FP25">
@@ -31226,7 +31238,7 @@
       <c r="FN26">
         <v>11045</v>
       </c>
-      <c r="FO26">
+      <c r="FO26" s="3">
         <v>10248</v>
       </c>
       <c r="FP26">
@@ -32437,7 +32449,7 @@
       <c r="FN27">
         <v>12523</v>
       </c>
-      <c r="FO27">
+      <c r="FO27" s="3">
         <v>11161</v>
       </c>
       <c r="FP27">
@@ -33648,7 +33660,7 @@
       <c r="FN28">
         <v>13719</v>
       </c>
-      <c r="FO28">
+      <c r="FO28" s="3">
         <v>13752</v>
       </c>
       <c r="FP28">
@@ -34859,7 +34871,7 @@
       <c r="FN29">
         <v>17509</v>
       </c>
-      <c r="FO29">
+      <c r="FO29" s="3">
         <v>17392</v>
       </c>
       <c r="FP29">
@@ -36070,7 +36082,7 @@
       <c r="FN30">
         <v>16881</v>
       </c>
-      <c r="FO30">
+      <c r="FO30" s="3">
         <v>16643</v>
       </c>
       <c r="FP30">
@@ -36770,1214 +36782,1214 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:403" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:403" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>87</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <v>0</v>
-      </c>
-      <c r="BF31">
-        <v>0</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>0</v>
-      </c>
-      <c r="BI31">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BK31">
-        <v>0</v>
-      </c>
-      <c r="BL31">
-        <v>0</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>0</v>
-      </c>
-      <c r="BO31">
-        <v>0</v>
-      </c>
-      <c r="BP31">
-        <v>0</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>0</v>
-      </c>
-      <c r="BT31">
-        <v>0</v>
-      </c>
-      <c r="BU31">
-        <v>0</v>
-      </c>
-      <c r="BV31">
-        <v>0</v>
-      </c>
-      <c r="BW31">
-        <v>0</v>
-      </c>
-      <c r="BX31">
-        <v>0</v>
-      </c>
-      <c r="BY31">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY31" s="3">
         <v>24</v>
       </c>
-      <c r="BZ31">
+      <c r="BZ31" s="3">
         <v>26</v>
       </c>
-      <c r="CA31">
+      <c r="CA31" s="3">
         <v>184</v>
       </c>
-      <c r="CB31">
+      <c r="CB31" s="3">
         <v>710</v>
       </c>
-      <c r="CC31">
+      <c r="CC31" s="3">
         <v>1288</v>
       </c>
-      <c r="CD31">
+      <c r="CD31" s="3">
         <v>2031</v>
       </c>
-      <c r="CE31">
+      <c r="CE31" s="3">
         <v>4411</v>
       </c>
-      <c r="CF31">
+      <c r="CF31" s="3">
         <v>5471</v>
       </c>
-      <c r="CG31">
+      <c r="CG31" s="3">
         <v>7649</v>
       </c>
-      <c r="CH31">
+      <c r="CH31" s="3">
         <v>8391</v>
       </c>
-      <c r="CI31">
+      <c r="CI31" s="3">
         <v>8734</v>
       </c>
-      <c r="CJ31">
+      <c r="CJ31" s="3">
         <v>10432</v>
       </c>
-      <c r="CK31">
+      <c r="CK31" s="3">
         <v>13366</v>
       </c>
-      <c r="CL31">
+      <c r="CL31" s="3">
         <v>14295</v>
       </c>
-      <c r="CM31">
+      <c r="CM31" s="3">
         <v>12805</v>
       </c>
-      <c r="CN31">
+      <c r="CN31" s="3">
         <v>11707</v>
       </c>
-      <c r="CO31">
+      <c r="CO31" s="3">
         <v>11958</v>
       </c>
-      <c r="CP31">
+      <c r="CP31" s="3">
         <v>11638</v>
       </c>
-      <c r="CQ31">
+      <c r="CQ31" s="3">
         <v>12143</v>
       </c>
-      <c r="CR31">
+      <c r="CR31" s="3">
         <v>12691</v>
       </c>
-      <c r="CS31">
+      <c r="CS31" s="3">
         <v>12232</v>
       </c>
-      <c r="CT31">
+      <c r="CT31" s="3">
         <v>13457</v>
       </c>
-      <c r="CU31">
+      <c r="CU31" s="3">
         <v>12218</v>
       </c>
-      <c r="CV31">
+      <c r="CV31" s="3">
         <v>10067</v>
       </c>
-      <c r="CW31">
+      <c r="CW31" s="3">
         <v>8684</v>
       </c>
-      <c r="CX31">
+      <c r="CX31" s="3">
         <v>6486</v>
       </c>
-      <c r="CY31">
+      <c r="CY31" s="3">
         <v>4905</v>
       </c>
-      <c r="CZ31">
+      <c r="CZ31" s="3">
         <v>5457</v>
       </c>
-      <c r="DA31">
+      <c r="DA31" s="3">
         <v>5108</v>
       </c>
-      <c r="DB31">
+      <c r="DB31" s="3">
         <v>3734</v>
       </c>
-      <c r="DC31">
+      <c r="DC31" s="3">
         <v>3244</v>
       </c>
-      <c r="DD31">
+      <c r="DD31" s="3">
         <v>3301</v>
       </c>
-      <c r="DE31">
+      <c r="DE31" s="3">
         <v>3069</v>
       </c>
-      <c r="DF31">
+      <c r="DF31" s="3">
         <v>2991</v>
       </c>
-      <c r="DG31">
+      <c r="DG31" s="3">
         <v>3236</v>
       </c>
-      <c r="DH31">
+      <c r="DH31" s="3">
         <v>3344</v>
       </c>
-      <c r="DI31">
+      <c r="DI31" s="3">
         <v>3636</v>
       </c>
-      <c r="DJ31">
+      <c r="DJ31" s="3">
         <v>4523</v>
       </c>
-      <c r="DK31">
+      <c r="DK31" s="3">
         <v>6173</v>
       </c>
-      <c r="DL31">
+      <c r="DL31" s="3">
         <v>7089</v>
       </c>
-      <c r="DM31">
+      <c r="DM31" s="3">
         <v>7031</v>
       </c>
-      <c r="DN31">
+      <c r="DN31" s="3">
         <v>7240</v>
       </c>
-      <c r="DO31">
+      <c r="DO31" s="3">
         <v>7526</v>
       </c>
-      <c r="DP31">
+      <c r="DP31" s="3">
         <v>9107</v>
       </c>
-      <c r="DQ31">
+      <c r="DQ31" s="3">
         <v>9714</v>
       </c>
-      <c r="DR31">
+      <c r="DR31" s="3">
         <v>10368</v>
       </c>
-      <c r="DS31">
+      <c r="DS31" s="3">
         <v>10928</v>
       </c>
-      <c r="DT31">
+      <c r="DT31" s="3">
         <v>10893</v>
       </c>
-      <c r="DU31">
+      <c r="DU31" s="3">
         <v>11610</v>
       </c>
-      <c r="DV31">
+      <c r="DV31" s="3">
         <v>13003</v>
       </c>
-      <c r="DW31">
+      <c r="DW31" s="3">
         <v>13289</v>
       </c>
-      <c r="DX31">
+      <c r="DX31" s="3">
         <v>12831</v>
       </c>
-      <c r="DY31">
+      <c r="DY31" s="3">
         <v>13576</v>
       </c>
-      <c r="DZ31">
+      <c r="DZ31" s="3">
         <v>15045</v>
       </c>
-      <c r="EA31">
+      <c r="EA31" s="3">
         <v>14911</v>
       </c>
-      <c r="EB31">
+      <c r="EB31" s="3">
         <v>13873</v>
       </c>
-      <c r="EC31">
+      <c r="EC31" s="3">
         <v>13808</v>
       </c>
-      <c r="ED31">
+      <c r="ED31" s="3">
         <v>14629</v>
       </c>
-      <c r="EE31">
+      <c r="EE31" s="3">
         <v>14905</v>
       </c>
-      <c r="EF31">
+      <c r="EF31" s="3">
         <v>15365</v>
       </c>
-      <c r="EG31">
+      <c r="EG31" s="3">
         <v>16042</v>
       </c>
-      <c r="EH31">
+      <c r="EH31" s="3">
         <v>16373</v>
       </c>
-      <c r="EI31">
+      <c r="EI31" s="3">
         <v>18112</v>
       </c>
-      <c r="EJ31">
+      <c r="EJ31" s="3">
         <v>16828</v>
       </c>
-      <c r="EK31">
+      <c r="EK31" s="3">
         <v>14316</v>
       </c>
-      <c r="EL31">
+      <c r="EL31" s="3">
         <v>11992</v>
       </c>
-      <c r="EM31">
+      <c r="EM31" s="3">
         <v>11279</v>
       </c>
-      <c r="EN31">
+      <c r="EN31" s="3">
         <v>10490</v>
       </c>
-      <c r="EO31">
+      <c r="EO31" s="3">
         <v>9798</v>
       </c>
-      <c r="EP31">
+      <c r="EP31" s="3">
         <v>10696</v>
       </c>
-      <c r="EQ31">
+      <c r="EQ31" s="3">
         <v>13353</v>
       </c>
-      <c r="ER31">
+      <c r="ER31" s="3">
         <v>12364</v>
       </c>
-      <c r="ES31">
+      <c r="ES31" s="3">
         <v>9521</v>
       </c>
-      <c r="ET31">
+      <c r="ET31" s="3">
         <v>11613</v>
       </c>
-      <c r="EU31">
+      <c r="EU31" s="3">
         <v>12811</v>
       </c>
-      <c r="EV31">
+      <c r="EV31" s="3">
         <v>13427</v>
       </c>
-      <c r="EW31">
+      <c r="EW31" s="3">
         <v>13310</v>
       </c>
-      <c r="EX31">
+      <c r="EX31" s="3">
         <v>11314</v>
       </c>
-      <c r="EY31">
+      <c r="EY31" s="3">
         <v>10733</v>
       </c>
-      <c r="EZ31">
+      <c r="EZ31" s="3">
         <v>9090</v>
       </c>
-      <c r="FA31">
+      <c r="FA31" s="3">
         <v>6950</v>
       </c>
-      <c r="FB31">
+      <c r="FB31" s="3">
         <v>6292</v>
       </c>
-      <c r="FC31">
+      <c r="FC31" s="3">
         <v>7076</v>
       </c>
-      <c r="FD31">
+      <c r="FD31" s="3">
         <v>8399</v>
       </c>
-      <c r="FE31">
+      <c r="FE31" s="3">
         <v>8670</v>
       </c>
-      <c r="FF31">
+      <c r="FF31" s="3">
         <v>8379</v>
       </c>
-      <c r="FG31">
+      <c r="FG31" s="3">
         <v>9227</v>
       </c>
-      <c r="FH31">
+      <c r="FH31" s="3">
         <v>13319</v>
       </c>
-      <c r="FI31">
+      <c r="FI31" s="3">
         <v>19482</v>
       </c>
-      <c r="FJ31">
+      <c r="FJ31" s="3">
         <v>18647</v>
       </c>
-      <c r="FK31">
+      <c r="FK31" s="3">
         <v>12534</v>
       </c>
-      <c r="FL31">
+      <c r="FL31" s="3">
         <v>9098</v>
       </c>
-      <c r="FM31">
+      <c r="FM31" s="3">
         <v>16074</v>
       </c>
-      <c r="FN31">
+      <c r="FN31" s="3">
         <v>23080</v>
       </c>
-      <c r="FO31">
+      <c r="FO31" s="3">
         <v>21253</v>
       </c>
-      <c r="FP31">
+      <c r="FP31" s="3">
         <v>16999</v>
       </c>
-      <c r="FQ31">
+      <c r="FQ31" s="3">
         <v>11328</v>
       </c>
-      <c r="FR31">
+      <c r="FR31" s="3">
         <v>8301</v>
       </c>
-      <c r="FS31">
+      <c r="FS31" s="3">
         <v>7618</v>
       </c>
-      <c r="FT31">
+      <c r="FT31" s="3">
         <v>8220</v>
       </c>
-      <c r="FU31">
+      <c r="FU31" s="3">
         <v>9307</v>
       </c>
-      <c r="FV31">
+      <c r="FV31" s="3">
         <v>10114</v>
       </c>
-      <c r="FW31">
+      <c r="FW31" s="3">
         <v>10916</v>
       </c>
-      <c r="FX31">
+      <c r="FX31" s="3">
         <v>10846</v>
       </c>
-      <c r="FY31">
+      <c r="FY31" s="3">
         <v>10002</v>
       </c>
-      <c r="FZ31">
+      <c r="FZ31" s="3">
         <v>9068</v>
       </c>
-      <c r="GA31">
+      <c r="GA31" s="3">
         <v>8716</v>
       </c>
-      <c r="GB31">
+      <c r="GB31" s="3">
         <v>9340</v>
       </c>
-      <c r="GC31">
+      <c r="GC31" s="3">
         <v>10447</v>
       </c>
-      <c r="GD31">
+      <c r="GD31" s="3">
         <v>10462</v>
       </c>
-      <c r="GE31">
+      <c r="GE31" s="3">
         <v>11295</v>
       </c>
-      <c r="GF31">
+      <c r="GF31" s="3">
         <v>11459</v>
       </c>
-      <c r="GG31">
+      <c r="GG31" s="3">
         <v>11426</v>
       </c>
-      <c r="GH31" s="2">
+      <c r="GH31" s="3">
         <v>11398</v>
       </c>
-      <c r="GI31">
+      <c r="GI31" s="3">
         <v>11352</v>
       </c>
-      <c r="GJ31" s="1">
+      <c r="GJ31" s="3">
         <v>13110</v>
       </c>
-      <c r="GK31">
+      <c r="GK31" s="3">
         <v>11720</v>
       </c>
-      <c r="GL31">
+      <c r="GL31" s="3">
         <v>8106</v>
       </c>
-      <c r="GM31">
+      <c r="GM31" s="3">
         <v>5223</v>
       </c>
-      <c r="GN31">
+      <c r="GN31" s="3">
         <v>3515</v>
       </c>
-      <c r="GO31">
+      <c r="GO31" s="3">
         <v>3170</v>
       </c>
-      <c r="GP31">
+      <c r="GP31" s="3">
         <v>2875</v>
       </c>
-      <c r="GQ31">
+      <c r="GQ31" s="3">
         <v>3130</v>
       </c>
-      <c r="GR31">
+      <c r="GR31" s="3">
         <v>3292</v>
       </c>
-      <c r="GS31">
+      <c r="GS31" s="3">
         <v>3192</v>
       </c>
-      <c r="GT31">
+      <c r="GT31" s="3">
         <v>3347</v>
       </c>
-      <c r="GU31">
+      <c r="GU31" s="3">
         <v>3526</v>
       </c>
-      <c r="GV31">
+      <c r="GV31" s="3">
         <v>2917</v>
       </c>
-      <c r="GW31">
+      <c r="GW31" s="3">
         <v>2819</v>
       </c>
-      <c r="GX31">
+      <c r="GX31" s="3">
         <v>3037</v>
       </c>
-      <c r="GY31">
+      <c r="GY31" s="3">
         <v>3583</v>
       </c>
-      <c r="GZ31">
+      <c r="GZ31" s="3">
         <v>3885</v>
       </c>
-      <c r="HA31">
+      <c r="HA31" s="3">
         <v>4725</v>
       </c>
-      <c r="HB31">
+      <c r="HB31" s="3">
         <v>5507</v>
       </c>
-      <c r="HC31">
+      <c r="HC31" s="3">
         <v>6144</v>
       </c>
-      <c r="HD31">
+      <c r="HD31" s="3">
         <v>6849</v>
       </c>
-      <c r="HE31">
+      <c r="HE31" s="3">
         <v>6783</v>
       </c>
-      <c r="HF31">
+      <c r="HF31" s="3">
         <v>6403</v>
       </c>
-      <c r="HG31">
+      <c r="HG31" s="3">
         <v>5822</v>
       </c>
-      <c r="HH31">
+      <c r="HH31" s="3">
         <v>6020</v>
       </c>
-      <c r="HI31">
+      <c r="HI31" s="3">
         <v>4678</v>
       </c>
-      <c r="HJ31">
+      <c r="HJ31" s="3">
         <v>3395</v>
       </c>
-      <c r="HK31">
+      <c r="HK31" s="3">
         <v>4655</v>
       </c>
-      <c r="HL31">
+      <c r="HL31" s="3">
         <v>5856</v>
       </c>
-      <c r="HM31">
+      <c r="HM31" s="3">
         <v>6361</v>
       </c>
-      <c r="HN31">
+      <c r="HN31" s="3">
         <v>6489</v>
       </c>
-      <c r="HO31">
+      <c r="HO31" s="3">
         <v>5608</v>
       </c>
-      <c r="HP31">
+      <c r="HP31" s="3">
         <v>6016</v>
       </c>
-      <c r="HQ31">
+      <c r="HQ31" s="3">
         <v>7751</v>
       </c>
-      <c r="HR31">
+      <c r="HR31" s="3">
         <v>11152</v>
       </c>
-      <c r="HS31">
+      <c r="HS31" s="3">
         <v>12697</v>
       </c>
-      <c r="HT31">
+      <c r="HT31" s="3">
         <v>13015</v>
       </c>
-      <c r="HU31">
+      <c r="HU31" s="3">
         <v>14301</v>
       </c>
-      <c r="HV31">
+      <c r="HV31" s="3">
         <v>11483</v>
       </c>
-      <c r="HW31">
+      <c r="HW31" s="3">
         <v>7776</v>
       </c>
-      <c r="HX31">
+      <c r="HX31" s="3">
         <v>6134</v>
       </c>
-      <c r="HY31">
+      <c r="HY31" s="3">
         <v>4694</v>
       </c>
-      <c r="HZ31">
+      <c r="HZ31" s="3">
         <v>4067</v>
       </c>
-      <c r="IA31">
+      <c r="IA31" s="3">
         <v>3713</v>
       </c>
-      <c r="IB31">
+      <c r="IB31" s="3">
         <v>3190</v>
       </c>
-      <c r="IC31">
+      <c r="IC31" s="3">
         <v>3422</v>
       </c>
-      <c r="ID31">
+      <c r="ID31" s="3">
         <v>4032</v>
       </c>
-      <c r="IE31">
+      <c r="IE31" s="3">
         <v>5100</v>
       </c>
-      <c r="IF31">
+      <c r="IF31" s="3">
         <v>6155</v>
       </c>
-      <c r="IG31">
+      <c r="IG31" s="3">
         <v>7466</v>
       </c>
-      <c r="IH31">
+      <c r="IH31" s="3">
         <v>7943</v>
       </c>
-      <c r="II31">
+      <c r="II31" s="3">
         <v>8531</v>
       </c>
-      <c r="IJ31">
+      <c r="IJ31" s="3">
         <v>8439</v>
       </c>
-      <c r="IK31">
+      <c r="IK31" s="3">
         <v>7778</v>
       </c>
-      <c r="IL31">
+      <c r="IL31" s="3">
         <v>7533</v>
       </c>
-      <c r="IM31">
+      <c r="IM31" s="3">
         <v>7691</v>
       </c>
-      <c r="IN31">
+      <c r="IN31" s="3">
         <v>7099</v>
       </c>
-      <c r="IO31">
+      <c r="IO31" s="3">
         <v>6613</v>
       </c>
-      <c r="IP31">
+      <c r="IP31" s="3">
         <v>6623</v>
       </c>
-      <c r="IQ31">
+      <c r="IQ31" s="3">
         <v>7194</v>
       </c>
-      <c r="IR31">
+      <c r="IR31" s="3">
         <v>7530</v>
       </c>
-      <c r="IS31">
+      <c r="IS31" s="3">
         <v>7523</v>
       </c>
-      <c r="IT31">
+      <c r="IT31" s="3">
         <v>7979</v>
       </c>
-      <c r="IU31">
+      <c r="IU31" s="3">
         <v>8468</v>
       </c>
-      <c r="IV31">
+      <c r="IV31" s="3">
         <v>9687</v>
       </c>
-      <c r="IW31">
+      <c r="IW31" s="3">
         <v>8541</v>
       </c>
-      <c r="IX31">
+      <c r="IX31" s="3">
         <v>7235</v>
       </c>
-      <c r="IY31">
+      <c r="IY31" s="3">
         <v>6948</v>
       </c>
-      <c r="IZ31">
+      <c r="IZ31" s="3">
         <v>7984</v>
       </c>
-      <c r="JA31">
+      <c r="JA31" s="3">
         <v>8557</v>
       </c>
-      <c r="JB31">
+      <c r="JB31" s="3">
         <v>8015</v>
       </c>
-      <c r="JC31">
+      <c r="JC31" s="3">
         <v>8091</v>
       </c>
-      <c r="JD31">
+      <c r="JD31" s="3">
         <v>8361</v>
       </c>
-      <c r="JE31">
+      <c r="JE31" s="3">
         <v>8700</v>
       </c>
-      <c r="JF31">
+      <c r="JF31" s="3">
         <v>9137</v>
       </c>
-      <c r="JG31">
+      <c r="JG31" s="3">
         <v>10003</v>
       </c>
-      <c r="JH31">
+      <c r="JH31" s="3">
         <v>10374</v>
       </c>
-      <c r="JI31">
+      <c r="JI31" s="3">
         <v>10314</v>
       </c>
-      <c r="JJ31">
+      <c r="JJ31" s="3">
         <v>9618</v>
       </c>
-      <c r="JK31">
+      <c r="JK31" s="3">
         <v>9157</v>
       </c>
-      <c r="JL31">
+      <c r="JL31" s="3">
         <v>8338</v>
       </c>
-      <c r="JM31">
+      <c r="JM31" s="3">
         <v>7082</v>
       </c>
-      <c r="JN31">
+      <c r="JN31" s="3">
         <v>6508</v>
       </c>
-      <c r="JO31">
+      <c r="JO31" s="3">
         <v>5984</v>
       </c>
-      <c r="JP31">
+      <c r="JP31" s="3">
         <v>5686</v>
       </c>
-      <c r="JQ31">
+      <c r="JQ31" s="3">
         <v>6198</v>
       </c>
-      <c r="JR31">
+      <c r="JR31" s="3">
         <v>6997</v>
       </c>
-      <c r="JS31">
+      <c r="JS31" s="3">
         <v>5844</v>
       </c>
-      <c r="JT31">
+      <c r="JT31" s="3">
         <v>4680</v>
       </c>
-      <c r="JU31">
+      <c r="JU31" s="3">
         <v>4182</v>
       </c>
-      <c r="JV31">
+      <c r="JV31" s="3">
         <v>3955</v>
       </c>
-      <c r="JW31">
+      <c r="JW31" s="3">
         <v>3664</v>
       </c>
-      <c r="JX31">
+      <c r="JX31" s="3">
         <v>3954</v>
       </c>
-      <c r="JY31">
+      <c r="JY31" s="3">
         <v>4333</v>
       </c>
-      <c r="JZ31">
+      <c r="JZ31" s="3">
         <v>5303</v>
       </c>
-      <c r="KA31">
+      <c r="KA31" s="3">
         <v>5458</v>
       </c>
-      <c r="KB31">
+      <c r="KB31" s="3">
         <v>6068</v>
       </c>
-      <c r="KC31">
+      <c r="KC31" s="3">
         <v>6376</v>
       </c>
-      <c r="KD31">
+      <c r="KD31" s="3">
         <v>5920</v>
       </c>
-      <c r="KE31">
+      <c r="KE31" s="3">
         <v>6484</v>
       </c>
-      <c r="KF31">
+      <c r="KF31" s="3">
         <v>7364</v>
       </c>
-      <c r="KG31">
+      <c r="KG31" s="3">
         <v>7203</v>
       </c>
-      <c r="KH31">
+      <c r="KH31" s="3">
         <v>6928</v>
       </c>
-      <c r="KI31">
+      <c r="KI31" s="3">
         <v>7734</v>
       </c>
-      <c r="KJ31">
+      <c r="KJ31" s="3">
         <v>6721</v>
       </c>
-      <c r="KK31">
+      <c r="KK31" s="3">
         <v>5666</v>
       </c>
-      <c r="KL31">
+      <c r="KL31" s="3">
         <v>5556</v>
       </c>
-      <c r="KM31">
+      <c r="KM31" s="3">
         <v>5378</v>
       </c>
-      <c r="KN31">
+      <c r="KN31" s="3">
         <v>4709</v>
       </c>
-      <c r="KO31">
+      <c r="KO31" s="3">
         <v>5056</v>
       </c>
-      <c r="KP31">
+      <c r="KP31" s="3">
         <v>5459</v>
       </c>
-      <c r="KQ31">
+      <c r="KQ31" s="3">
         <v>5572</v>
       </c>
-      <c r="KR31">
+      <c r="KR31" s="3">
         <v>5550</v>
       </c>
-      <c r="KS31">
+      <c r="KS31" s="3">
         <v>5266</v>
       </c>
-      <c r="KT31">
+      <c r="KT31" s="3">
         <v>4840</v>
       </c>
-      <c r="KU31">
+      <c r="KU31" s="3">
         <v>4937</v>
       </c>
-      <c r="KV31">
+      <c r="KV31" s="3">
         <v>4541</v>
       </c>
-      <c r="KW31">
+      <c r="KW31" s="3">
         <v>3324</v>
       </c>
-      <c r="KX31">
+      <c r="KX31" s="3">
         <v>3014</v>
       </c>
-      <c r="KY31">
+      <c r="KY31" s="3">
         <v>2718</v>
       </c>
-      <c r="KZ31">
+      <c r="KZ31" s="3">
         <v>2718</v>
       </c>
-      <c r="LA31">
+      <c r="LA31" s="3">
         <v>3236</v>
       </c>
-      <c r="LB31">
+      <c r="LB31" s="3">
         <v>3264</v>
       </c>
-      <c r="LC31">
+      <c r="LC31" s="3">
         <v>2857</v>
       </c>
-      <c r="LD31">
+      <c r="LD31" s="3">
         <v>3046</v>
       </c>
-      <c r="LE31">
+      <c r="LE31" s="3">
         <v>3148</v>
       </c>
-      <c r="LF31">
+      <c r="LF31" s="3">
         <v>3061</v>
       </c>
-      <c r="LG31">
+      <c r="LG31" s="3">
         <v>3166</v>
       </c>
-      <c r="LH31">
+      <c r="LH31" s="3">
         <v>3100</v>
       </c>
-      <c r="LI31">
+      <c r="LI31" s="3">
         <v>3763</v>
       </c>
-      <c r="LJ31">
+      <c r="LJ31" s="3">
         <v>5093</v>
       </c>
-      <c r="LK31">
+      <c r="LK31" s="3">
         <v>4674</v>
       </c>
-      <c r="LL31">
+      <c r="LL31" s="3">
         <v>3163</v>
       </c>
-      <c r="LM31">
+      <c r="LM31" s="3">
         <v>2160</v>
       </c>
-      <c r="LN31">
+      <c r="LN31" s="3">
         <v>1149</v>
       </c>
-      <c r="LO31">
+      <c r="LO31" s="3">
         <v>1022</v>
       </c>
-      <c r="LP31">
+      <c r="LP31" s="3">
         <v>868</v>
       </c>
-      <c r="LQ31">
+      <c r="LQ31" s="3">
         <v>594</v>
       </c>
-      <c r="LR31">
+      <c r="LR31" s="3">
         <v>71</v>
       </c>
-      <c r="LS31">
-        <v>0</v>
-      </c>
-      <c r="LT31">
-        <v>0</v>
-      </c>
-      <c r="LU31">
-        <v>0</v>
-      </c>
-      <c r="LV31">
-        <v>0</v>
-      </c>
-      <c r="LW31">
-        <v>0</v>
-      </c>
-      <c r="LX31">
-        <v>0</v>
-      </c>
-      <c r="LY31">
-        <v>0</v>
-      </c>
-      <c r="LZ31">
-        <v>0</v>
-      </c>
-      <c r="MA31">
-        <v>0</v>
-      </c>
-      <c r="MB31">
-        <v>0</v>
-      </c>
-      <c r="MC31">
-        <v>0</v>
-      </c>
-      <c r="MD31">
-        <v>0</v>
-      </c>
-      <c r="ME31">
-        <v>0</v>
-      </c>
-      <c r="MF31">
-        <v>0</v>
-      </c>
-      <c r="MG31">
-        <v>0</v>
-      </c>
-      <c r="MH31">
-        <v>0</v>
-      </c>
-      <c r="MI31">
-        <v>0</v>
-      </c>
-      <c r="MJ31">
-        <v>0</v>
-      </c>
-      <c r="MK31">
-        <v>0</v>
-      </c>
-      <c r="ML31">
-        <v>0</v>
-      </c>
-      <c r="MM31">
-        <v>0</v>
-      </c>
-      <c r="MN31">
-        <v>0</v>
-      </c>
-      <c r="MO31">
-        <v>0</v>
-      </c>
-      <c r="MP31">
-        <v>0</v>
-      </c>
-      <c r="MQ31">
-        <v>0</v>
-      </c>
-      <c r="MR31">
-        <v>0</v>
-      </c>
-      <c r="MS31">
-        <v>0</v>
-      </c>
-      <c r="MT31">
-        <v>0</v>
-      </c>
-      <c r="MU31">
-        <v>0</v>
-      </c>
-      <c r="MV31">
-        <v>0</v>
-      </c>
-      <c r="MW31">
-        <v>0</v>
-      </c>
-      <c r="MX31">
-        <v>0</v>
-      </c>
-      <c r="MY31">
-        <v>0</v>
-      </c>
-      <c r="MZ31">
-        <v>0</v>
-      </c>
-      <c r="NA31">
-        <v>0</v>
-      </c>
-      <c r="NB31">
-        <v>0</v>
-      </c>
-      <c r="NC31">
-        <v>0</v>
-      </c>
-      <c r="ND31">
-        <v>0</v>
-      </c>
-      <c r="NE31">
-        <v>0</v>
-      </c>
-      <c r="NF31">
-        <v>0</v>
-      </c>
-      <c r="NG31">
-        <v>0</v>
-      </c>
-      <c r="NH31">
-        <v>0</v>
-      </c>
-      <c r="NI31">
-        <v>0</v>
-      </c>
-      <c r="NJ31">
-        <v>0</v>
-      </c>
-      <c r="NK31">
-        <v>0</v>
-      </c>
-      <c r="NL31">
-        <v>0</v>
-      </c>
-      <c r="NM31">
-        <v>0</v>
-      </c>
-      <c r="NN31">
-        <v>0</v>
-      </c>
-      <c r="NO31">
-        <v>0</v>
-      </c>
-      <c r="NP31">
-        <v>0</v>
-      </c>
-      <c r="NQ31">
-        <v>0</v>
-      </c>
-      <c r="NR31">
-        <v>0</v>
-      </c>
-      <c r="NS31">
-        <v>0</v>
-      </c>
-      <c r="NT31">
-        <v>0</v>
-      </c>
-      <c r="NU31">
-        <v>0</v>
-      </c>
-      <c r="NV31">
-        <v>0</v>
-      </c>
-      <c r="NW31">
-        <v>0</v>
-      </c>
-      <c r="NX31">
-        <v>0</v>
-      </c>
-      <c r="NY31">
-        <v>0</v>
-      </c>
-      <c r="NZ31">
-        <v>0</v>
-      </c>
-      <c r="OA31">
-        <v>0</v>
-      </c>
-      <c r="OB31">
-        <v>0</v>
-      </c>
-      <c r="OC31">
-        <v>0</v>
-      </c>
-      <c r="OD31">
-        <v>0</v>
-      </c>
-      <c r="OE31">
-        <v>0</v>
-      </c>
-      <c r="OF31">
-        <v>0</v>
-      </c>
-      <c r="OG31">
-        <v>0</v>
-      </c>
-      <c r="OH31">
-        <v>0</v>
-      </c>
-      <c r="OI31">
-        <v>0</v>
-      </c>
-      <c r="OJ31">
-        <v>0</v>
-      </c>
-      <c r="OK31">
-        <v>0</v>
-      </c>
-      <c r="OL31">
-        <v>0</v>
-      </c>
-      <c r="OM31">
+      <c r="LS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="LT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="LU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="LV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="LW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="LX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="LY31" s="3">
+        <v>0</v>
+      </c>
+      <c r="LZ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="ME31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="ML31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MY31" s="3">
+        <v>0</v>
+      </c>
+      <c r="MZ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="ND31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NY31" s="3">
+        <v>0</v>
+      </c>
+      <c r="NZ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="OM31" s="3">
         <v>0</v>
       </c>
     </row>
@@ -38492,7 +38504,7 @@
       <c r="FN32">
         <v>19817</v>
       </c>
-      <c r="FO32">
+      <c r="FO32" s="3">
         <v>21586</v>
       </c>
       <c r="FP32">
@@ -39703,7 +39715,7 @@
       <c r="FN33">
         <v>16984</v>
       </c>
-      <c r="FO33">
+      <c r="FO33" s="3">
         <v>17475</v>
       </c>
       <c r="FP33">
@@ -40914,7 +40926,7 @@
       <c r="FN34">
         <v>15984</v>
       </c>
-      <c r="FO34">
+      <c r="FO34" s="3">
         <v>15083</v>
       </c>
       <c r="FP34">
@@ -42125,7 +42137,7 @@
       <c r="FN35">
         <v>12892</v>
       </c>
-      <c r="FO35">
+      <c r="FO35" s="3">
         <v>11441</v>
       </c>
       <c r="FP35">
@@ -43336,7 +43348,7 @@
       <c r="FN36">
         <v>10075</v>
       </c>
-      <c r="FO36">
+      <c r="FO36" s="3">
         <v>10334</v>
       </c>
       <c r="FP36">
@@ -44547,7 +44559,7 @@
       <c r="FN37">
         <v>8713</v>
       </c>
-      <c r="FO37">
+      <c r="FO37" s="3">
         <v>9310</v>
       </c>
       <c r="FP37">
@@ -45758,7 +45770,7 @@
       <c r="FN38">
         <v>10963</v>
       </c>
-      <c r="FO38">
+      <c r="FO38" s="3">
         <v>11211</v>
       </c>
       <c r="FP38">
@@ -46969,7 +46981,7 @@
       <c r="FN39">
         <v>13307</v>
       </c>
-      <c r="FO39">
+      <c r="FO39" s="3">
         <v>12422</v>
       </c>
       <c r="FP39">
@@ -48180,7 +48192,7 @@
       <c r="FN40">
         <v>12873</v>
       </c>
-      <c r="FO40">
+      <c r="FO40" s="3">
         <v>11405</v>
       </c>
       <c r="FP40">
@@ -49391,7 +49403,7 @@
       <c r="FN41">
         <v>15600</v>
       </c>
-      <c r="FO41">
+      <c r="FO41" s="3">
         <v>16016</v>
       </c>
       <c r="FP41">
@@ -50602,7 +50614,7 @@
       <c r="FN42">
         <v>13780</v>
       </c>
-      <c r="FO42">
+      <c r="FO42" s="3">
         <v>14724</v>
       </c>
       <c r="FP42">
@@ -51813,7 +51825,7 @@
       <c r="FN43">
         <v>11489</v>
       </c>
-      <c r="FO43">
+      <c r="FO43" s="3">
         <v>12200</v>
       </c>
       <c r="FP43">
@@ -53024,7 +53036,7 @@
       <c r="FN44">
         <v>14087</v>
       </c>
-      <c r="FO44">
+      <c r="FO44" s="3">
         <v>14672</v>
       </c>
       <c r="FP44">
@@ -54235,7 +54247,7 @@
       <c r="FN45">
         <v>11927</v>
       </c>
-      <c r="FO45">
+      <c r="FO45" s="3">
         <v>13040</v>
       </c>
       <c r="FP45">
@@ -55446,7 +55458,7 @@
       <c r="FN46">
         <v>11192</v>
       </c>
-      <c r="FO46">
+      <c r="FO46" s="3">
         <v>11667</v>
       </c>
       <c r="FP46">
@@ -56657,10 +56669,10 @@
       <c r="FN47" s="1">
         <v>15811</v>
       </c>
-      <c r="FO47" s="1">
+      <c r="FO47" s="3">
         <v>8120</v>
       </c>
-      <c r="FP47" s="1">
+      <c r="FP47">
         <v>8345</v>
       </c>
       <c r="FQ47" s="1">
@@ -57868,7 +57880,7 @@
       <c r="FN48">
         <v>10856</v>
       </c>
-      <c r="FO48">
+      <c r="FO48" s="3">
         <v>11579</v>
       </c>
       <c r="FP48">
@@ -59079,7 +59091,7 @@
       <c r="FN49">
         <v>14483</v>
       </c>
-      <c r="FO49">
+      <c r="FO49" s="3">
         <v>15673</v>
       </c>
       <c r="FP49">
@@ -60290,7 +60302,7 @@
       <c r="FN50">
         <v>15712</v>
       </c>
-      <c r="FO50">
+      <c r="FO50" s="3">
         <v>15566</v>
       </c>
       <c r="FP50">
@@ -61501,7 +61513,7 @@
       <c r="FN51">
         <v>16101</v>
       </c>
-      <c r="FO51">
+      <c r="FO51" s="3">
         <v>15321</v>
       </c>
       <c r="FP51">
@@ -62712,7 +62724,7 @@
       <c r="FN52">
         <v>16282</v>
       </c>
-      <c r="FO52">
+      <c r="FO52" s="3">
         <v>15899</v>
       </c>
       <c r="FP52">
@@ -63923,7 +63935,7 @@
       <c r="FN53">
         <v>17062</v>
       </c>
-      <c r="FO53">
+      <c r="FO53" s="3">
         <v>17791</v>
       </c>
       <c r="FP53">
@@ -65134,7 +65146,7 @@
       <c r="FN54">
         <v>16470</v>
       </c>
-      <c r="FO54">
+      <c r="FO54" s="3">
         <v>15360</v>
       </c>
       <c r="FP54">
@@ -66345,7 +66357,7 @@
       <c r="FN55">
         <v>14338</v>
       </c>
-      <c r="FO55">
+      <c r="FO55" s="3">
         <v>14823</v>
       </c>
       <c r="FP55">
@@ -67556,7 +67568,7 @@
       <c r="FN56">
         <v>12065</v>
       </c>
-      <c r="FO56">
+      <c r="FO56" s="3">
         <v>12313</v>
       </c>
       <c r="FP56">
@@ -68767,7 +68779,7 @@
       <c r="FN57">
         <v>9992</v>
       </c>
-      <c r="FO57">
+      <c r="FO57" s="3">
         <v>11206</v>
       </c>
       <c r="FP57">
@@ -69978,7 +69990,7 @@
       <c r="FN58">
         <v>8402</v>
       </c>
-      <c r="FO58">
+      <c r="FO58" s="3">
         <v>10518</v>
       </c>
       <c r="FP58">
@@ -71189,7 +71201,7 @@
       <c r="FN59">
         <v>8604</v>
       </c>
-      <c r="FO59">
+      <c r="FO59" s="3">
         <v>8919</v>
       </c>
       <c r="FP59">
@@ -72400,7 +72412,7 @@
       <c r="FN60">
         <v>7030</v>
       </c>
-      <c r="FO60">
+      <c r="FO60" s="3">
         <v>6962</v>
       </c>
       <c r="FP60">
@@ -73611,7 +73623,7 @@
       <c r="FN61">
         <v>5841</v>
       </c>
-      <c r="FO61">
+      <c r="FO61" s="3">
         <v>6817</v>
       </c>
       <c r="FP61">
@@ -74325,9 +74337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C08392-0564-4102-8149-4C5386784389}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/test/filter_edge_color/test_hough_color_peaks.xlsx
+++ b/test/filter_edge_color/test_hough_color_peaks.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\test\filter_edge_color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB77D70-FAF4-4C65-8618-345DCB930D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B114F-83AB-4465-BAA2-CEE15390FE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="795" windowWidth="15960" windowHeight="12420" xr2:uid="{3149D163-2F90-4328-88DA-2CE741C7ED86}"/>
+    <workbookView xWindow="-28725" yWindow="4275" windowWidth="14025" windowHeight="8655" activeTab="1" xr2:uid="{3149D163-2F90-4328-88DA-2CE741C7ED86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +39,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -85,11 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,12 +447,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EFA1F1-82E2-45B6-B47E-39EBE2A05BF0}">
   <dimension ref="A1:OM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1350" ySplit="585" topLeftCell="FM12" activePane="bottomRight"/>
-      <selection activeCell="FF11" sqref="FF11"/>
-      <selection pane="topRight" activeCell="FO1" sqref="FO1:FO1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="585" topLeftCell="A12"/>
+      <selection activeCell="FO31" sqref="FO31"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
-      <selection pane="bottomRight" activeCell="FO31" sqref="FO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74334,6 +74342,581 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB614A3E-F271-4CBE-9C93-9387255A04C2}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>18348</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+      <c r="C1">
+        <v>74</v>
+      </c>
+      <c r="D1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>19051</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19790</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>18489</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>19914</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>-75</v>
+      </c>
+      <c r="D5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19482</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>-38</v>
+      </c>
+      <c r="D6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>18647</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>-37</v>
+      </c>
+      <c r="D7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>23080</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>-33</v>
+      </c>
+      <c r="D8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>21253</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>-32</v>
+      </c>
+      <c r="D9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>19817</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-33</v>
+      </c>
+      <c r="D10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>21586</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>-32</v>
+      </c>
+      <c r="D11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>21976</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>18452</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>19235</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18677</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>19304</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>-28</v>
+      </c>
+      <c r="D16">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20372</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>-25</v>
+      </c>
+      <c r="D17">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>21528</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>-23</v>
+      </c>
+      <c r="D18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22333</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>-21</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23638</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>-18</v>
+      </c>
+      <c r="D20">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>24594</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>-16</v>
+      </c>
+      <c r="D21">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>26001</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>-13</v>
+      </c>
+      <c r="D22">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>26663</v>
+      </c>
+      <c r="B23">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>-11</v>
+      </c>
+      <c r="D23">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24823</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>-8</v>
+      </c>
+      <c r="D24">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21984</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>-6</v>
+      </c>
+      <c r="D25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20041</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>-4</v>
+      </c>
+      <c r="D26">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>19985</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>20085</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>19810</v>
+      </c>
+      <c r="B29">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>18204</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>-28</v>
+      </c>
+      <c r="D30">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>18267</v>
+      </c>
+      <c r="B31">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>-26</v>
+      </c>
+      <c r="D31">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>18772</v>
+      </c>
+      <c r="B32">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>-25</v>
+      </c>
+      <c r="D32">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>18316</v>
+      </c>
+      <c r="B33">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>-24</v>
+      </c>
+      <c r="D33">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>18444</v>
+      </c>
+      <c r="B34">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>-22</v>
+      </c>
+      <c r="D34">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>18485</v>
+      </c>
+      <c r="B35">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>-21</v>
+      </c>
+      <c r="D35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>18228</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>-23</v>
+      </c>
+      <c r="D36">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>19095</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>-22</v>
+      </c>
+      <c r="D37">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>18409</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>-21</v>
+      </c>
+      <c r="D38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18269</v>
+      </c>
+      <c r="B39" s="4">
+        <v>58</v>
+      </c>
+      <c r="C39" s="4">
+        <v>105</v>
+      </c>
+      <c r="D39">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>21368</v>
+      </c>
+      <c r="B40" s="4">
+        <v>59</v>
+      </c>
+      <c r="C40" s="4">
+        <v>-69</v>
+      </c>
+      <c r="D40">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C08392-0564-4102-8149-4C5386784389}">
   <dimension ref="A1:C40"/>
   <sheetViews>
